--- a/PAKISTAN_cleaned_data_reports_papers/PAKISTAN_CODEBOOK_DSPP.xlsx
+++ b/PAKISTAN_cleaned_data_reports_papers/PAKISTAN_CODEBOOK_DSPP.xlsx
@@ -1,11 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="4" rupBuild="28521"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="4" rupBuild="11110"/>
   <workbookPr/>
-  <xr:revisionPtr revIDLastSave="573" documentId="11_0B1D56BE9CDCCE836B02CE7A5FB0D4A9BBFD1C62" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{1E1F2CE5-1B18-4CAC-925F-CA4863607CD0}"/>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+    <mc:Choice Requires="x15">
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/yaraantoniassi/Documents/dspp_capstone_msf/PAKISTAN_cleaned_data_reports_papers/"/>
+    </mc:Choice>
+  </mc:AlternateContent>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{0577A392-FAB3-E549-B6FA-82D1F3F336E7}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="240" yWindow="105" windowWidth="14805" windowHeight="8010" firstSheet="2" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="0" yWindow="740" windowWidth="29380" windowHeight="16940" activeTab="2" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="codebook_province" sheetId="1" r:id="rId1"/>
@@ -61,10 +66,12 @@
   <commentList>
     <comment ref="C48" authorId="0" shapeId="0" xr:uid="{4653B33A-4FBD-4AE3-8498-635EABC94E60}">
       <text>
-        <t xml:space="preserve">[Threaded comment]
+        <t>[Threaded comment]
 Your version of Excel allows you to read this threaded comment; however, any edits to it will get removed if the file is opened in a newer version of Excel. Learn more: https://go.microsoft.com/fwlink/?linkid=870924
 Comment:
-    </t>
+    this seems to be for public facilities only. @Yara can you confirm?
+Reply:
+    I am not done yet! I will add the others as well</t>
       </text>
     </comment>
     <comment ref="F70" authorId="1" shapeId="0" xr:uid="{3EF0ED5C-67D5-4AE1-8BA5-0E8283B96066}">
@@ -1077,7 +1084,7 @@
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="7">
+  <fonts count="7" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -1122,7 +1129,7 @@
     </font>
     <font>
       <sz val="11"/>
-      <name val="Calibri"/>
+      <name val="Aptos Narrow"/>
       <family val="2"/>
       <scheme val="minor"/>
     </font>
@@ -1607,10 +1614,10 @@
 
 <file path=xl/threadedComments/threadedComment2.xml><?xml version="1.0" encoding="utf-8"?>
 <ThreadedComments xmlns="http://schemas.microsoft.com/office/spreadsheetml/2018/threadedcomments" xmlns:x="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <threadedComment ref="C2" dT="2025-01-22T12:22:31.81" personId="{7444BF79-2E67-4F3A-86CE-8DEC598ED785}" id="{4653B33A-4FBD-4AE3-8498-635EABC94E60}" done="1">
+  <threadedComment ref="C48" dT="2025-01-22T12:22:31.81" personId="{7444BF79-2E67-4F3A-86CE-8DEC598ED785}" id="{4653B33A-4FBD-4AE3-8498-635EABC94E60}" done="1">
     <text>this seems to be for public facilities only. @Yara can you confirm?</text>
   </threadedComment>
-  <threadedComment ref="C2" dT="2025-01-22T12:26:39.66" personId="{8F66A08A-EA79-4A5E-B2B5-B12763BF9ADC}" id="{D256F320-366A-4580-94A8-856F65FB0DD3}" parentId="{4653B33A-4FBD-4AE3-8498-635EABC94E60}">
+  <threadedComment ref="C48" dT="2025-01-22T12:26:39.66" personId="{8F66A08A-EA79-4A5E-B2B5-B12763BF9ADC}" id="{D256F320-366A-4580-94A8-856F65FB0DD3}" parentId="{4653B33A-4FBD-4AE3-8498-635EABC94E60}">
     <text>I am not done yet! I will add the others as well</text>
   </threadedComment>
   <threadedComment ref="F70" dT="2025-01-23T14:05:17.88" personId="{8F66A08A-EA79-4A5E-B2B5-B12763BF9ADC}" id="{3EF0ED5C-67D5-4AE1-8BA5-0E8283B96066}">
@@ -1623,23 +1630,23 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:H49"/>
   <sheetViews>
-    <sheetView topLeftCell="B1" workbookViewId="0">
-      <selection activeCell="F35" sqref="F35"/>
+    <sheetView topLeftCell="A30" workbookViewId="0">
+      <selection activeCell="G41" sqref="G41"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
   <cols>
     <col min="1" max="1" width="11" style="1" customWidth="1"/>
-    <col min="2" max="2" width="36.7109375" style="2" customWidth="1"/>
-    <col min="3" max="3" width="25.42578125" style="2" customWidth="1"/>
+    <col min="2" max="2" width="36.6640625" style="2" customWidth="1"/>
+    <col min="3" max="3" width="25.5" style="2" customWidth="1"/>
     <col min="4" max="4" width="12" style="2" customWidth="1"/>
-    <col min="5" max="5" width="15.85546875" style="2" customWidth="1"/>
-    <col min="6" max="6" width="38.42578125" style="2" customWidth="1"/>
-    <col min="7" max="7" width="123.28515625" style="2" customWidth="1"/>
-    <col min="8" max="8" width="20.140625" style="2" customWidth="1"/>
+    <col min="5" max="5" width="15.83203125" style="2" customWidth="1"/>
+    <col min="6" max="6" width="38.5" style="2" customWidth="1"/>
+    <col min="7" max="7" width="123.33203125" style="2" customWidth="1"/>
+    <col min="8" max="8" width="20.1640625" style="2" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:8" ht="29.25">
+    <row r="1" spans="1:8" ht="16" x14ac:dyDescent="0.2">
       <c r="A1" s="3" t="s">
         <v>0</v>
       </c>
@@ -1665,7 +1672,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="2" spans="1:8">
+    <row r="2" spans="1:8" ht="16" x14ac:dyDescent="0.2">
       <c r="A2" s="15" t="s">
         <v>8</v>
       </c>
@@ -1691,7 +1698,7 @@
         <v>14</v>
       </c>
     </row>
-    <row r="3" spans="1:8">
+    <row r="3" spans="1:8" ht="16" x14ac:dyDescent="0.2">
       <c r="A3" s="15"/>
       <c r="B3" s="11" t="s">
         <v>9</v>
@@ -1713,7 +1720,7 @@
         <v>14</v>
       </c>
     </row>
-    <row r="4" spans="1:8">
+    <row r="4" spans="1:8" ht="16" x14ac:dyDescent="0.2">
       <c r="A4" s="15"/>
       <c r="B4" s="11" t="s">
         <v>9</v>
@@ -1735,7 +1742,7 @@
         <v>14</v>
       </c>
     </row>
-    <row r="5" spans="1:8">
+    <row r="5" spans="1:8" ht="16" x14ac:dyDescent="0.2">
       <c r="A5" s="15"/>
       <c r="B5" s="11" t="s">
         <v>9</v>
@@ -1757,7 +1764,7 @@
         <v>14</v>
       </c>
     </row>
-    <row r="6" spans="1:8">
+    <row r="6" spans="1:8" ht="16" x14ac:dyDescent="0.2">
       <c r="A6" s="15"/>
       <c r="B6" s="11" t="s">
         <v>9</v>
@@ -1779,7 +1786,7 @@
         <v>14</v>
       </c>
     </row>
-    <row r="7" spans="1:8">
+    <row r="7" spans="1:8" ht="16" x14ac:dyDescent="0.2">
       <c r="A7" s="15"/>
       <c r="B7" s="11" t="s">
         <v>9</v>
@@ -1801,7 +1808,7 @@
         <v>14</v>
       </c>
     </row>
-    <row r="8" spans="1:8">
+    <row r="8" spans="1:8" ht="16" x14ac:dyDescent="0.2">
       <c r="A8" s="15"/>
       <c r="B8" s="11" t="s">
         <v>9</v>
@@ -1823,7 +1830,7 @@
         <v>14</v>
       </c>
     </row>
-    <row r="9" spans="1:8">
+    <row r="9" spans="1:8" ht="16" x14ac:dyDescent="0.2">
       <c r="A9" s="15"/>
       <c r="B9" s="11" t="s">
         <v>9</v>
@@ -1845,7 +1852,7 @@
         <v>14</v>
       </c>
     </row>
-    <row r="10" spans="1:8">
+    <row r="10" spans="1:8" ht="16" x14ac:dyDescent="0.2">
       <c r="A10" s="15"/>
       <c r="B10" s="11" t="s">
         <v>9</v>
@@ -1867,7 +1874,7 @@
         <v>14</v>
       </c>
     </row>
-    <row r="11" spans="1:8">
+    <row r="11" spans="1:8" ht="16" x14ac:dyDescent="0.2">
       <c r="A11" s="15"/>
       <c r="B11" s="11" t="s">
         <v>9</v>
@@ -1889,7 +1896,7 @@
         <v>14</v>
       </c>
     </row>
-    <row r="12" spans="1:8">
+    <row r="12" spans="1:8" ht="16" x14ac:dyDescent="0.2">
       <c r="A12" s="15"/>
       <c r="B12" s="11" t="s">
         <v>9</v>
@@ -1911,7 +1918,7 @@
         <v>14</v>
       </c>
     </row>
-    <row r="13" spans="1:8">
+    <row r="13" spans="1:8" ht="16" x14ac:dyDescent="0.2">
       <c r="A13" s="15"/>
       <c r="B13" s="11" t="s">
         <v>9</v>
@@ -1933,7 +1940,7 @@
         <v>14</v>
       </c>
     </row>
-    <row r="14" spans="1:8">
+    <row r="14" spans="1:8" ht="16" x14ac:dyDescent="0.2">
       <c r="A14" s="15"/>
       <c r="B14" s="11" t="s">
         <v>9</v>
@@ -1955,7 +1962,7 @@
         <v>14</v>
       </c>
     </row>
-    <row r="15" spans="1:8">
+    <row r="15" spans="1:8" ht="16" x14ac:dyDescent="0.2">
       <c r="A15" s="15"/>
       <c r="B15" s="11" t="s">
         <v>9</v>
@@ -1977,7 +1984,7 @@
         <v>14</v>
       </c>
     </row>
-    <row r="16" spans="1:8">
+    <row r="16" spans="1:8" ht="16" x14ac:dyDescent="0.2">
       <c r="A16" s="15"/>
       <c r="B16" s="11" t="s">
         <v>9</v>
@@ -1999,7 +2006,7 @@
         <v>14</v>
       </c>
     </row>
-    <row r="17" spans="1:8">
+    <row r="17" spans="1:8" ht="16" x14ac:dyDescent="0.2">
       <c r="A17" s="15"/>
       <c r="B17" s="11" t="s">
         <v>9</v>
@@ -2021,7 +2028,7 @@
         <v>14</v>
       </c>
     </row>
-    <row r="18" spans="1:8">
+    <row r="18" spans="1:8" ht="16" x14ac:dyDescent="0.2">
       <c r="A18" s="15"/>
       <c r="B18" s="11" t="s">
         <v>9</v>
@@ -2043,7 +2050,7 @@
         <v>14</v>
       </c>
     </row>
-    <row r="19" spans="1:8">
+    <row r="19" spans="1:8" ht="16" x14ac:dyDescent="0.2">
       <c r="A19" s="15"/>
       <c r="B19" s="11" t="s">
         <v>9</v>
@@ -2065,7 +2072,7 @@
         <v>14</v>
       </c>
     </row>
-    <row r="20" spans="1:8">
+    <row r="20" spans="1:8" ht="16" x14ac:dyDescent="0.2">
       <c r="A20" s="15"/>
       <c r="B20" s="11" t="s">
         <v>9</v>
@@ -2087,7 +2094,7 @@
         <v>14</v>
       </c>
     </row>
-    <row r="21" spans="1:8">
+    <row r="21" spans="1:8" ht="16" x14ac:dyDescent="0.2">
       <c r="A21" s="15"/>
       <c r="B21" s="11" t="s">
         <v>9</v>
@@ -2109,7 +2116,7 @@
         <v>14</v>
       </c>
     </row>
-    <row r="22" spans="1:8">
+    <row r="22" spans="1:8" ht="16" x14ac:dyDescent="0.2">
       <c r="A22" s="15"/>
       <c r="B22" s="11" t="s">
         <v>9</v>
@@ -2131,7 +2138,7 @@
         <v>55</v>
       </c>
     </row>
-    <row r="23" spans="1:8">
+    <row r="23" spans="1:8" ht="16" x14ac:dyDescent="0.2">
       <c r="A23" s="15"/>
       <c r="B23" s="11" t="s">
         <v>9</v>
@@ -2153,7 +2160,7 @@
         <v>55</v>
       </c>
     </row>
-    <row r="24" spans="1:8">
+    <row r="24" spans="1:8" ht="16" x14ac:dyDescent="0.2">
       <c r="A24" s="15"/>
       <c r="B24" s="11" t="s">
         <v>9</v>
@@ -2175,7 +2182,7 @@
         <v>55</v>
       </c>
     </row>
-    <row r="25" spans="1:8">
+    <row r="25" spans="1:8" ht="16" x14ac:dyDescent="0.2">
       <c r="A25" s="15"/>
       <c r="B25" s="11" t="s">
         <v>9</v>
@@ -2197,7 +2204,7 @@
         <v>55</v>
       </c>
     </row>
-    <row r="26" spans="1:8">
+    <row r="26" spans="1:8" ht="16" x14ac:dyDescent="0.2">
       <c r="A26" s="15" t="s">
         <v>62</v>
       </c>
@@ -2223,7 +2230,7 @@
         <v>55</v>
       </c>
     </row>
-    <row r="27" spans="1:8">
+    <row r="27" spans="1:8" ht="16" x14ac:dyDescent="0.2">
       <c r="A27" s="15"/>
       <c r="B27" s="4" t="s">
         <v>63</v>
@@ -2245,7 +2252,7 @@
         <v>55</v>
       </c>
     </row>
-    <row r="28" spans="1:8">
+    <row r="28" spans="1:8" ht="16" x14ac:dyDescent="0.2">
       <c r="A28" s="15"/>
       <c r="B28" s="4" t="s">
         <v>63</v>
@@ -2267,7 +2274,7 @@
         <v>55</v>
       </c>
     </row>
-    <row r="29" spans="1:8">
+    <row r="29" spans="1:8" ht="16" x14ac:dyDescent="0.2">
       <c r="A29" s="15"/>
       <c r="B29" s="4" t="s">
         <v>63</v>
@@ -2289,7 +2296,7 @@
         <v>55</v>
       </c>
     </row>
-    <row r="30" spans="1:8">
+    <row r="30" spans="1:8" ht="16" x14ac:dyDescent="0.2">
       <c r="A30" s="15"/>
       <c r="B30" s="4" t="s">
         <v>63</v>
@@ -2311,7 +2318,7 @@
         <v>55</v>
       </c>
     </row>
-    <row r="31" spans="1:8">
+    <row r="31" spans="1:8" ht="16" x14ac:dyDescent="0.2">
       <c r="A31" s="15"/>
       <c r="B31" s="4" t="s">
         <v>63</v>
@@ -2333,7 +2340,7 @@
         <v>55</v>
       </c>
     </row>
-    <row r="32" spans="1:8">
+    <row r="32" spans="1:8" ht="16" x14ac:dyDescent="0.2">
       <c r="A32" s="15" t="s">
         <v>80</v>
       </c>
@@ -2359,7 +2366,7 @@
         <v>55</v>
       </c>
     </row>
-    <row r="33" spans="1:8">
+    <row r="33" spans="1:8" ht="16" x14ac:dyDescent="0.2">
       <c r="A33" s="15"/>
       <c r="B33" s="7" t="s">
         <v>81</v>
@@ -2381,7 +2388,7 @@
         <v>55</v>
       </c>
     </row>
-    <row r="34" spans="1:8">
+    <row r="34" spans="1:8" ht="16" x14ac:dyDescent="0.2">
       <c r="A34" s="15"/>
       <c r="B34" s="7" t="s">
         <v>81</v>
@@ -2403,7 +2410,7 @@
         <v>55</v>
       </c>
     </row>
-    <row r="35" spans="1:8">
+    <row r="35" spans="1:8" ht="16" x14ac:dyDescent="0.2">
       <c r="A35" s="15"/>
       <c r="B35" s="7" t="s">
         <v>81</v>
@@ -2425,7 +2432,7 @@
         <v>55</v>
       </c>
     </row>
-    <row r="36" spans="1:8">
+    <row r="36" spans="1:8" ht="16" x14ac:dyDescent="0.2">
       <c r="A36" s="15"/>
       <c r="B36" s="7" t="s">
         <v>81</v>
@@ -2447,7 +2454,7 @@
         <v>55</v>
       </c>
     </row>
-    <row r="37" spans="1:8">
+    <row r="37" spans="1:8" ht="16" x14ac:dyDescent="0.2">
       <c r="A37" s="15"/>
       <c r="B37" s="7" t="s">
         <v>81</v>
@@ -2469,7 +2476,7 @@
         <v>55</v>
       </c>
     </row>
-    <row r="38" spans="1:8">
+    <row r="38" spans="1:8" ht="16" x14ac:dyDescent="0.2">
       <c r="A38" s="15"/>
       <c r="B38" s="7" t="s">
         <v>81</v>
@@ -2491,7 +2498,7 @@
         <v>55</v>
       </c>
     </row>
-    <row r="39" spans="1:8">
+    <row r="39" spans="1:8" ht="16" x14ac:dyDescent="0.2">
       <c r="A39" s="15"/>
       <c r="B39" s="7" t="s">
         <v>81</v>
@@ -2513,7 +2520,7 @@
         <v>55</v>
       </c>
     </row>
-    <row r="40" spans="1:8">
+    <row r="40" spans="1:8" ht="16" x14ac:dyDescent="0.2">
       <c r="A40" s="15"/>
       <c r="B40" s="7" t="s">
         <v>81</v>
@@ -2535,7 +2542,7 @@
         <v>55</v>
       </c>
     </row>
-    <row r="41" spans="1:8">
+    <row r="41" spans="1:8" ht="16" x14ac:dyDescent="0.2">
       <c r="A41" s="15"/>
       <c r="B41" s="7" t="s">
         <v>81</v>
@@ -2557,33 +2564,33 @@
         <v>55</v>
       </c>
     </row>
-    <row r="42" spans="1:8" ht="135" customHeight="1">
+    <row r="42" spans="1:8" ht="135" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A42" s="6"/>
       <c r="F42" s="6"/>
       <c r="G42" s="5"/>
       <c r="H42" s="1"/>
     </row>
-    <row r="43" spans="1:8">
+    <row r="43" spans="1:8" x14ac:dyDescent="0.2">
       <c r="F43" s="5"/>
       <c r="G43" s="5"/>
       <c r="H43" s="1"/>
     </row>
-    <row r="44" spans="1:8">
+    <row r="44" spans="1:8" x14ac:dyDescent="0.2">
       <c r="H44" s="1"/>
     </row>
-    <row r="45" spans="1:8">
+    <row r="45" spans="1:8" x14ac:dyDescent="0.2">
       <c r="H45" s="1"/>
     </row>
-    <row r="46" spans="1:8">
+    <row r="46" spans="1:8" x14ac:dyDescent="0.2">
       <c r="H46" s="1"/>
     </row>
-    <row r="47" spans="1:8">
+    <row r="47" spans="1:8" x14ac:dyDescent="0.2">
       <c r="H47" s="1"/>
     </row>
-    <row r="48" spans="1:8">
+    <row r="48" spans="1:8" x14ac:dyDescent="0.2">
       <c r="H48" s="1"/>
     </row>
-    <row r="49" spans="8:8">
+    <row r="49" spans="8:8" x14ac:dyDescent="0.2">
       <c r="H49" s="1"/>
     </row>
   </sheetData>
@@ -2609,17 +2616,17 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{E6174015-2D77-48F0-93EE-8DF44AC0D7B6}">
   <dimension ref="A1:K25"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="C4" workbookViewId="0">
-      <selection activeCell="E13" sqref="E13:E24"/>
+    <sheetView topLeftCell="F1" zoomScale="175" workbookViewId="0">
+      <selection activeCell="G11" sqref="G11"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="46.140625" defaultRowHeight="15"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="46.1640625" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
   <cols>
-    <col min="1" max="1" width="17.28515625" customWidth="1"/>
-    <col min="7" max="7" width="62.7109375" customWidth="1"/>
+    <col min="1" max="1" width="17.33203125" customWidth="1"/>
+    <col min="7" max="7" width="62.6640625" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:11">
+    <row r="1" spans="1:11" ht="16" x14ac:dyDescent="0.2">
       <c r="A1" s="3" t="s">
         <v>0</v>
       </c>
@@ -2645,7 +2652,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="2" spans="1:11">
+    <row r="2" spans="1:11" ht="16" x14ac:dyDescent="0.2">
       <c r="A2" s="15" t="s">
         <v>8</v>
       </c>
@@ -2671,7 +2678,7 @@
         <v>55</v>
       </c>
     </row>
-    <row r="3" spans="1:11">
+    <row r="3" spans="1:11" ht="16" x14ac:dyDescent="0.2">
       <c r="A3" s="15"/>
       <c r="B3" s="9" t="s">
         <v>103</v>
@@ -2693,7 +2700,7 @@
         <v>55</v>
       </c>
     </row>
-    <row r="4" spans="1:11">
+    <row r="4" spans="1:11" ht="16" x14ac:dyDescent="0.2">
       <c r="A4" s="15"/>
       <c r="B4" s="9" t="s">
         <v>103</v>
@@ -2715,7 +2722,7 @@
         <v>55</v>
       </c>
     </row>
-    <row r="5" spans="1:11">
+    <row r="5" spans="1:11" ht="16" x14ac:dyDescent="0.2">
       <c r="A5" s="15"/>
       <c r="B5" s="9" t="s">
         <v>103</v>
@@ -2737,7 +2744,7 @@
         <v>55</v>
       </c>
     </row>
-    <row r="6" spans="1:11" ht="130.5">
+    <row r="6" spans="1:11" ht="128" x14ac:dyDescent="0.2">
       <c r="A6" s="15"/>
       <c r="B6" s="9" t="s">
         <v>103</v>
@@ -2759,7 +2766,7 @@
         <v>55</v>
       </c>
     </row>
-    <row r="7" spans="1:11">
+    <row r="7" spans="1:11" ht="16" x14ac:dyDescent="0.2">
       <c r="A7" s="15"/>
       <c r="B7" s="9" t="s">
         <v>103</v>
@@ -2781,7 +2788,7 @@
         <v>55</v>
       </c>
     </row>
-    <row r="8" spans="1:11">
+    <row r="8" spans="1:11" ht="16" x14ac:dyDescent="0.2">
       <c r="A8" s="15"/>
       <c r="B8" s="9" t="s">
         <v>103</v>
@@ -2803,7 +2810,7 @@
         <v>55</v>
       </c>
     </row>
-    <row r="9" spans="1:11">
+    <row r="9" spans="1:11" ht="16" x14ac:dyDescent="0.2">
       <c r="A9" s="15"/>
       <c r="B9" s="9" t="s">
         <v>103</v>
@@ -2825,7 +2832,7 @@
         <v>55</v>
       </c>
     </row>
-    <row r="10" spans="1:11">
+    <row r="10" spans="1:11" ht="16" x14ac:dyDescent="0.2">
       <c r="A10" s="15"/>
       <c r="B10" s="9" t="s">
         <v>103</v>
@@ -2847,7 +2854,7 @@
         <v>55</v>
       </c>
     </row>
-    <row r="11" spans="1:11" ht="130.5">
+    <row r="11" spans="1:11" ht="128" x14ac:dyDescent="0.2">
       <c r="A11" s="15"/>
       <c r="B11" s="9" t="s">
         <v>103</v>
@@ -2869,7 +2876,7 @@
         <v>55</v>
       </c>
     </row>
-    <row r="12" spans="1:11">
+    <row r="12" spans="1:11" ht="16" x14ac:dyDescent="0.2">
       <c r="A12" s="15" t="s">
         <v>62</v>
       </c>
@@ -2895,7 +2902,7 @@
         <v>14</v>
       </c>
     </row>
-    <row r="13" spans="1:11">
+    <row r="13" spans="1:11" ht="16" x14ac:dyDescent="0.2">
       <c r="A13" s="15"/>
       <c r="B13" s="10" t="s">
         <v>127</v>
@@ -2917,7 +2924,7 @@
         <v>14</v>
       </c>
     </row>
-    <row r="14" spans="1:11">
+    <row r="14" spans="1:11" ht="16" x14ac:dyDescent="0.2">
       <c r="A14" s="15"/>
       <c r="B14" s="10" t="s">
         <v>127</v>
@@ -2942,7 +2949,7 @@
       <c r="J14" s="2"/>
       <c r="K14" s="2"/>
     </row>
-    <row r="15" spans="1:11">
+    <row r="15" spans="1:11" ht="16" x14ac:dyDescent="0.2">
       <c r="A15" s="15"/>
       <c r="B15" s="10" t="s">
         <v>127</v>
@@ -2964,7 +2971,7 @@
         <v>14</v>
       </c>
     </row>
-    <row r="16" spans="1:11">
+    <row r="16" spans="1:11" ht="16" x14ac:dyDescent="0.2">
       <c r="A16" s="15"/>
       <c r="B16" s="10" t="s">
         <v>127</v>
@@ -2986,7 +2993,7 @@
         <v>14</v>
       </c>
     </row>
-    <row r="17" spans="1:8">
+    <row r="17" spans="1:8" ht="16" x14ac:dyDescent="0.2">
       <c r="A17" s="15"/>
       <c r="B17" s="10" t="s">
         <v>127</v>
@@ -3008,7 +3015,7 @@
         <v>14</v>
       </c>
     </row>
-    <row r="18" spans="1:8">
+    <row r="18" spans="1:8" ht="16" x14ac:dyDescent="0.2">
       <c r="A18" s="15"/>
       <c r="B18" s="10" t="s">
         <v>127</v>
@@ -3030,7 +3037,7 @@
         <v>14</v>
       </c>
     </row>
-    <row r="19" spans="1:8">
+    <row r="19" spans="1:8" ht="16" x14ac:dyDescent="0.2">
       <c r="A19" s="15"/>
       <c r="B19" s="10" t="s">
         <v>127</v>
@@ -3052,7 +3059,7 @@
         <v>14</v>
       </c>
     </row>
-    <row r="20" spans="1:8">
+    <row r="20" spans="1:8" ht="16" x14ac:dyDescent="0.2">
       <c r="A20" s="15"/>
       <c r="B20" s="10" t="s">
         <v>127</v>
@@ -3074,7 +3081,7 @@
         <v>14</v>
       </c>
     </row>
-    <row r="21" spans="1:8">
+    <row r="21" spans="1:8" ht="16" x14ac:dyDescent="0.2">
       <c r="A21" s="15"/>
       <c r="B21" s="10" t="s">
         <v>127</v>
@@ -3096,7 +3103,7 @@
         <v>14</v>
       </c>
     </row>
-    <row r="22" spans="1:8">
+    <row r="22" spans="1:8" ht="16" x14ac:dyDescent="0.2">
       <c r="A22" s="15"/>
       <c r="B22" s="10" t="s">
         <v>127</v>
@@ -3118,7 +3125,7 @@
         <v>14</v>
       </c>
     </row>
-    <row r="23" spans="1:8">
+    <row r="23" spans="1:8" ht="16" x14ac:dyDescent="0.2">
       <c r="A23" s="15"/>
       <c r="B23" s="10" t="s">
         <v>127</v>
@@ -3140,7 +3147,7 @@
         <v>14</v>
       </c>
     </row>
-    <row r="24" spans="1:8">
+    <row r="24" spans="1:8" ht="16" x14ac:dyDescent="0.2">
       <c r="A24" s="15"/>
       <c r="B24" s="10" t="s">
         <v>127</v>
@@ -3162,7 +3169,7 @@
         <v>14</v>
       </c>
     </row>
-    <row r="25" spans="1:8" ht="57.75">
+    <row r="25" spans="1:8" ht="64" x14ac:dyDescent="0.2">
       <c r="A25" s="6" t="s">
         <v>80</v>
       </c>
@@ -3206,24 +3213,24 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{B1ABDF95-94F0-47C1-BCDC-55701B646467}">
   <dimension ref="A1:K102"/>
   <sheetViews>
-    <sheetView topLeftCell="F48" workbookViewId="0">
-      <selection activeCell="A69" activeCellId="1" sqref="A68:XFD68 A69:XFD69"/>
+    <sheetView tabSelected="1" topLeftCell="E1" workbookViewId="0">
+      <selection activeCell="H1" sqref="F1:H1048576"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="13" defaultRowHeight="15"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="13" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
   <cols>
     <col min="1" max="1" width="13" style="1"/>
-    <col min="2" max="2" width="39.28515625" style="1" customWidth="1"/>
+    <col min="2" max="2" width="39.33203125" style="1" customWidth="1"/>
     <col min="3" max="3" width="13" style="1"/>
-    <col min="4" max="4" width="15.5703125" style="1" customWidth="1"/>
+    <col min="4" max="4" width="15.5" style="1" customWidth="1"/>
     <col min="5" max="5" width="13" style="1"/>
-    <col min="6" max="6" width="67.5703125" style="1" customWidth="1"/>
-    <col min="7" max="7" width="71.42578125" style="1" customWidth="1"/>
-    <col min="8" max="8" width="20.140625" style="1" customWidth="1"/>
+    <col min="6" max="6" width="67.5" style="1" customWidth="1"/>
+    <col min="7" max="7" width="71.5" style="1" customWidth="1"/>
+    <col min="8" max="8" width="20.1640625" style="1" customWidth="1"/>
     <col min="9" max="16384" width="13" style="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:11" ht="24" customHeight="1">
+    <row r="1" spans="1:11" ht="24" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A1" s="3" t="s">
         <v>0</v>
       </c>
@@ -3249,7 +3256,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="2" spans="1:11" ht="19.5" customHeight="1">
+    <row r="2" spans="1:11" ht="19.5" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A2" s="18" t="s">
         <v>62</v>
       </c>
@@ -3275,7 +3282,7 @@
         <v>164</v>
       </c>
     </row>
-    <row r="3" spans="1:11">
+    <row r="3" spans="1:11" ht="16" x14ac:dyDescent="0.2">
       <c r="A3" s="18"/>
       <c r="B3" s="10" t="s">
         <v>158</v>
@@ -3295,7 +3302,7 @@
       </c>
       <c r="H3" s="16"/>
     </row>
-    <row r="4" spans="1:11">
+    <row r="4" spans="1:11" ht="16" x14ac:dyDescent="0.2">
       <c r="A4" s="18"/>
       <c r="B4" s="10" t="s">
         <v>158</v>
@@ -3315,7 +3322,7 @@
       </c>
       <c r="H4" s="16"/>
     </row>
-    <row r="5" spans="1:11">
+    <row r="5" spans="1:11" ht="16" x14ac:dyDescent="0.2">
       <c r="A5" s="18"/>
       <c r="B5" s="10" t="s">
         <v>158</v>
@@ -3335,7 +3342,7 @@
       </c>
       <c r="H5" s="16"/>
     </row>
-    <row r="6" spans="1:11">
+    <row r="6" spans="1:11" ht="16" x14ac:dyDescent="0.2">
       <c r="A6" s="18"/>
       <c r="B6" s="10" t="s">
         <v>158</v>
@@ -3355,7 +3362,7 @@
       </c>
       <c r="H6" s="16"/>
     </row>
-    <row r="7" spans="1:11">
+    <row r="7" spans="1:11" ht="16" x14ac:dyDescent="0.2">
       <c r="A7" s="18"/>
       <c r="B7" s="10" t="s">
         <v>158</v>
@@ -3375,7 +3382,7 @@
       </c>
       <c r="H7" s="16"/>
     </row>
-    <row r="8" spans="1:11">
+    <row r="8" spans="1:11" ht="16" x14ac:dyDescent="0.2">
       <c r="A8" s="18"/>
       <c r="B8" s="10" t="s">
         <v>158</v>
@@ -3395,7 +3402,7 @@
       </c>
       <c r="H8" s="16"/>
     </row>
-    <row r="9" spans="1:11">
+    <row r="9" spans="1:11" ht="16" x14ac:dyDescent="0.2">
       <c r="A9" s="18"/>
       <c r="B9" s="10" t="s">
         <v>158</v>
@@ -3415,7 +3422,7 @@
       </c>
       <c r="H9" s="16"/>
     </row>
-    <row r="10" spans="1:11">
+    <row r="10" spans="1:11" ht="16" x14ac:dyDescent="0.2">
       <c r="A10" s="18"/>
       <c r="B10" s="10" t="s">
         <v>158</v>
@@ -3435,7 +3442,7 @@
       </c>
       <c r="H10" s="16"/>
     </row>
-    <row r="11" spans="1:11" ht="15" hidden="1" customHeight="1">
+    <row r="11" spans="1:11" ht="15" hidden="1" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A11" s="18"/>
       <c r="B11" s="10" t="s">
         <v>158</v>
@@ -3455,7 +3462,7 @@
       </c>
       <c r="H11" s="16"/>
     </row>
-    <row r="12" spans="1:11">
+    <row r="12" spans="1:11" ht="16" x14ac:dyDescent="0.2">
       <c r="A12" s="18"/>
       <c r="B12" s="10" t="s">
         <v>158</v>
@@ -3475,7 +3482,7 @@
       </c>
       <c r="H12" s="16"/>
     </row>
-    <row r="13" spans="1:11">
+    <row r="13" spans="1:11" ht="16" x14ac:dyDescent="0.2">
       <c r="A13" s="18"/>
       <c r="B13" s="10" t="s">
         <v>158</v>
@@ -3495,7 +3502,7 @@
       </c>
       <c r="H13" s="16"/>
     </row>
-    <row r="14" spans="1:11">
+    <row r="14" spans="1:11" ht="16" x14ac:dyDescent="0.2">
       <c r="A14" s="18"/>
       <c r="B14" s="10" t="s">
         <v>158</v>
@@ -3518,7 +3525,7 @@
       <c r="J14" s="2"/>
       <c r="K14" s="2"/>
     </row>
-    <row r="15" spans="1:11">
+    <row r="15" spans="1:11" ht="16" x14ac:dyDescent="0.2">
       <c r="A15" s="18"/>
       <c r="B15" s="10" t="s">
         <v>158</v>
@@ -3538,7 +3545,7 @@
       </c>
       <c r="H15" s="16"/>
     </row>
-    <row r="16" spans="1:11">
+    <row r="16" spans="1:11" ht="16" x14ac:dyDescent="0.2">
       <c r="A16" s="18"/>
       <c r="B16" s="10" t="s">
         <v>158</v>
@@ -3558,7 +3565,7 @@
       </c>
       <c r="H16" s="16"/>
     </row>
-    <row r="17" spans="1:8">
+    <row r="17" spans="1:8" ht="16" x14ac:dyDescent="0.2">
       <c r="A17" s="18"/>
       <c r="B17" s="10" t="s">
         <v>158</v>
@@ -3578,7 +3585,7 @@
       </c>
       <c r="H17" s="16"/>
     </row>
-    <row r="18" spans="1:8">
+    <row r="18" spans="1:8" ht="16" x14ac:dyDescent="0.2">
       <c r="A18" s="18"/>
       <c r="B18" s="10" t="s">
         <v>158</v>
@@ -3598,7 +3605,7 @@
       </c>
       <c r="H18" s="16"/>
     </row>
-    <row r="19" spans="1:8">
+    <row r="19" spans="1:8" ht="16" x14ac:dyDescent="0.2">
       <c r="A19" s="18"/>
       <c r="B19" s="10" t="s">
         <v>158</v>
@@ -3618,7 +3625,7 @@
       </c>
       <c r="H19" s="16"/>
     </row>
-    <row r="20" spans="1:8">
+    <row r="20" spans="1:8" ht="16" x14ac:dyDescent="0.2">
       <c r="A20" s="18"/>
       <c r="B20" s="10" t="s">
         <v>158</v>
@@ -3638,7 +3645,7 @@
       </c>
       <c r="H20" s="16"/>
     </row>
-    <row r="21" spans="1:8">
+    <row r="21" spans="1:8" ht="16" x14ac:dyDescent="0.2">
       <c r="A21" s="18"/>
       <c r="B21" s="10" t="s">
         <v>158</v>
@@ -3658,7 +3665,7 @@
       </c>
       <c r="H21" s="16"/>
     </row>
-    <row r="22" spans="1:8">
+    <row r="22" spans="1:8" ht="16" x14ac:dyDescent="0.2">
       <c r="A22" s="18"/>
       <c r="B22" s="10" t="s">
         <v>158</v>
@@ -3678,7 +3685,7 @@
       </c>
       <c r="H22" s="16"/>
     </row>
-    <row r="23" spans="1:8">
+    <row r="23" spans="1:8" ht="16" x14ac:dyDescent="0.2">
       <c r="A23" s="18"/>
       <c r="B23" s="10" t="s">
         <v>158</v>
@@ -3698,7 +3705,7 @@
       </c>
       <c r="H23" s="16"/>
     </row>
-    <row r="24" spans="1:8">
+    <row r="24" spans="1:8" ht="16" x14ac:dyDescent="0.2">
       <c r="A24" s="18"/>
       <c r="B24" s="10" t="s">
         <v>158</v>
@@ -3718,7 +3725,7 @@
       </c>
       <c r="H24" s="16"/>
     </row>
-    <row r="25" spans="1:8">
+    <row r="25" spans="1:8" ht="16" x14ac:dyDescent="0.2">
       <c r="A25" s="18"/>
       <c r="B25" s="10" t="s">
         <v>158</v>
@@ -3738,7 +3745,7 @@
       </c>
       <c r="H25" s="16"/>
     </row>
-    <row r="26" spans="1:8">
+    <row r="26" spans="1:8" ht="16" x14ac:dyDescent="0.2">
       <c r="A26" s="18"/>
       <c r="B26" s="10" t="s">
         <v>158</v>
@@ -3758,7 +3765,7 @@
       </c>
       <c r="H26" s="16"/>
     </row>
-    <row r="27" spans="1:8">
+    <row r="27" spans="1:8" ht="16" x14ac:dyDescent="0.2">
       <c r="A27" s="18"/>
       <c r="B27" s="10" t="s">
         <v>158</v>
@@ -3778,7 +3785,7 @@
       </c>
       <c r="H27" s="16"/>
     </row>
-    <row r="28" spans="1:8">
+    <row r="28" spans="1:8" ht="16" x14ac:dyDescent="0.2">
       <c r="A28" s="18"/>
       <c r="B28" s="10" t="s">
         <v>158</v>
@@ -3798,7 +3805,7 @@
       </c>
       <c r="H28" s="16"/>
     </row>
-    <row r="29" spans="1:8">
+    <row r="29" spans="1:8" ht="16" x14ac:dyDescent="0.2">
       <c r="A29" s="18"/>
       <c r="B29" s="10" t="s">
         <v>158</v>
@@ -3818,7 +3825,7 @@
       </c>
       <c r="H29" s="16"/>
     </row>
-    <row r="30" spans="1:8">
+    <row r="30" spans="1:8" ht="16" x14ac:dyDescent="0.2">
       <c r="A30" s="18"/>
       <c r="B30" s="10" t="s">
         <v>158</v>
@@ -3838,7 +3845,7 @@
       </c>
       <c r="H30" s="16"/>
     </row>
-    <row r="31" spans="1:8">
+    <row r="31" spans="1:8" ht="16" x14ac:dyDescent="0.2">
       <c r="A31" s="18"/>
       <c r="B31" s="10" t="s">
         <v>158</v>
@@ -3858,7 +3865,7 @@
       </c>
       <c r="H31" s="16"/>
     </row>
-    <row r="32" spans="1:8">
+    <row r="32" spans="1:8" ht="16" x14ac:dyDescent="0.2">
       <c r="A32" s="18"/>
       <c r="B32" s="10" t="s">
         <v>158</v>
@@ -3878,7 +3885,7 @@
       </c>
       <c r="H32" s="16"/>
     </row>
-    <row r="33" spans="1:8">
+    <row r="33" spans="1:8" ht="16" x14ac:dyDescent="0.2">
       <c r="A33" s="18"/>
       <c r="B33" s="10" t="s">
         <v>158</v>
@@ -3898,7 +3905,7 @@
       </c>
       <c r="H33" s="16"/>
     </row>
-    <row r="34" spans="1:8">
+    <row r="34" spans="1:8" ht="16" x14ac:dyDescent="0.2">
       <c r="A34" s="18"/>
       <c r="B34" s="10" t="s">
         <v>158</v>
@@ -3918,7 +3925,7 @@
       </c>
       <c r="H34" s="16"/>
     </row>
-    <row r="35" spans="1:8">
+    <row r="35" spans="1:8" ht="16" x14ac:dyDescent="0.2">
       <c r="A35" s="18"/>
       <c r="B35" s="10" t="s">
         <v>158</v>
@@ -3938,7 +3945,7 @@
       </c>
       <c r="H35" s="16"/>
     </row>
-    <row r="36" spans="1:8">
+    <row r="36" spans="1:8" ht="16" x14ac:dyDescent="0.2">
       <c r="A36" s="18"/>
       <c r="B36" s="10" t="s">
         <v>158</v>
@@ -3958,7 +3965,7 @@
       </c>
       <c r="H36" s="16"/>
     </row>
-    <row r="37" spans="1:8">
+    <row r="37" spans="1:8" ht="16" x14ac:dyDescent="0.2">
       <c r="A37" s="18"/>
       <c r="B37" s="10" t="s">
         <v>158</v>
@@ -3978,7 +3985,7 @@
       </c>
       <c r="H37" s="16"/>
     </row>
-    <row r="38" spans="1:8">
+    <row r="38" spans="1:8" ht="16" x14ac:dyDescent="0.2">
       <c r="A38" s="18"/>
       <c r="B38" s="10" t="s">
         <v>158</v>
@@ -3998,7 +4005,7 @@
       </c>
       <c r="H38" s="16"/>
     </row>
-    <row r="39" spans="1:8">
+    <row r="39" spans="1:8" ht="16" x14ac:dyDescent="0.2">
       <c r="A39" s="18"/>
       <c r="B39" s="10" t="s">
         <v>158</v>
@@ -4018,7 +4025,7 @@
       </c>
       <c r="H39" s="16"/>
     </row>
-    <row r="40" spans="1:8">
+    <row r="40" spans="1:8" ht="16" x14ac:dyDescent="0.2">
       <c r="A40" s="18"/>
       <c r="B40" s="10" t="s">
         <v>158</v>
@@ -4038,7 +4045,7 @@
       </c>
       <c r="H40" s="16"/>
     </row>
-    <row r="41" spans="1:8">
+    <row r="41" spans="1:8" ht="16" x14ac:dyDescent="0.2">
       <c r="A41" s="18"/>
       <c r="B41" s="10" t="s">
         <v>158</v>
@@ -4058,7 +4065,7 @@
       </c>
       <c r="H41" s="16"/>
     </row>
-    <row r="42" spans="1:8">
+    <row r="42" spans="1:8" ht="16" x14ac:dyDescent="0.2">
       <c r="A42" s="18"/>
       <c r="B42" s="10" t="s">
         <v>158</v>
@@ -4078,7 +4085,7 @@
       </c>
       <c r="H42" s="16"/>
     </row>
-    <row r="43" spans="1:8">
+    <row r="43" spans="1:8" ht="16" x14ac:dyDescent="0.2">
       <c r="A43" s="18"/>
       <c r="B43" s="10" t="s">
         <v>158</v>
@@ -4098,7 +4105,7 @@
       </c>
       <c r="H43" s="16"/>
     </row>
-    <row r="44" spans="1:8">
+    <row r="44" spans="1:8" ht="16" x14ac:dyDescent="0.2">
       <c r="A44" s="18"/>
       <c r="B44" s="10" t="s">
         <v>158</v>
@@ -4118,7 +4125,7 @@
       </c>
       <c r="H44" s="16"/>
     </row>
-    <row r="45" spans="1:8">
+    <row r="45" spans="1:8" ht="16" x14ac:dyDescent="0.2">
       <c r="A45" s="18"/>
       <c r="B45" s="10" t="s">
         <v>158</v>
@@ -4138,7 +4145,7 @@
       </c>
       <c r="H45" s="16"/>
     </row>
-    <row r="46" spans="1:8">
+    <row r="46" spans="1:8" ht="16" x14ac:dyDescent="0.2">
       <c r="A46" s="18"/>
       <c r="B46" s="10" t="s">
         <v>158</v>
@@ -4158,7 +4165,7 @@
       </c>
       <c r="H46" s="16"/>
     </row>
-    <row r="47" spans="1:8">
+    <row r="47" spans="1:8" ht="16" x14ac:dyDescent="0.2">
       <c r="A47" s="18"/>
       <c r="B47" s="10" t="s">
         <v>158</v>
@@ -4178,7 +4185,7 @@
       </c>
       <c r="H47" s="16"/>
     </row>
-    <row r="48" spans="1:8">
+    <row r="48" spans="1:8" ht="16" x14ac:dyDescent="0.2">
       <c r="A48" s="18"/>
       <c r="B48" s="10" t="s">
         <v>158</v>
@@ -4198,7 +4205,7 @@
       </c>
       <c r="H48" s="16"/>
     </row>
-    <row r="49" spans="1:8">
+    <row r="49" spans="1:8" ht="16" x14ac:dyDescent="0.2">
       <c r="A49" s="18"/>
       <c r="B49" s="10" t="s">
         <v>158</v>
@@ -4218,7 +4225,7 @@
       </c>
       <c r="H49" s="16"/>
     </row>
-    <row r="50" spans="1:8">
+    <row r="50" spans="1:8" ht="16" x14ac:dyDescent="0.2">
       <c r="A50" s="18"/>
       <c r="B50" s="10" t="s">
         <v>158</v>
@@ -4238,7 +4245,7 @@
       </c>
       <c r="H50" s="16"/>
     </row>
-    <row r="51" spans="1:8">
+    <row r="51" spans="1:8" ht="16" x14ac:dyDescent="0.2">
       <c r="A51" s="18"/>
       <c r="B51" s="10" t="s">
         <v>158</v>
@@ -4258,7 +4265,7 @@
       </c>
       <c r="H51" s="16"/>
     </row>
-    <row r="52" spans="1:8">
+    <row r="52" spans="1:8" ht="16" x14ac:dyDescent="0.2">
       <c r="A52" s="18"/>
       <c r="B52" s="10" t="s">
         <v>158</v>
@@ -4278,7 +4285,7 @@
       </c>
       <c r="H52" s="16"/>
     </row>
-    <row r="53" spans="1:8">
+    <row r="53" spans="1:8" ht="16" x14ac:dyDescent="0.2">
       <c r="A53" s="18"/>
       <c r="B53" s="10" t="s">
         <v>158</v>
@@ -4298,7 +4305,7 @@
       </c>
       <c r="H53" s="16"/>
     </row>
-    <row r="54" spans="1:8">
+    <row r="54" spans="1:8" ht="16" x14ac:dyDescent="0.2">
       <c r="A54" s="18"/>
       <c r="B54" s="10" t="s">
         <v>158</v>
@@ -4318,7 +4325,7 @@
       </c>
       <c r="H54" s="16"/>
     </row>
-    <row r="55" spans="1:8" ht="87" customHeight="1">
+    <row r="55" spans="1:8" ht="87" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A55" s="18" t="s">
         <v>8</v>
       </c>
@@ -4344,7 +4351,7 @@
         <v>164</v>
       </c>
     </row>
-    <row r="56" spans="1:8">
+    <row r="56" spans="1:8" ht="16" x14ac:dyDescent="0.2">
       <c r="A56" s="18"/>
       <c r="B56" s="4" t="s">
         <v>267</v>
@@ -4364,7 +4371,7 @@
       </c>
       <c r="H56" s="19"/>
     </row>
-    <row r="57" spans="1:8">
+    <row r="57" spans="1:8" ht="16" x14ac:dyDescent="0.2">
       <c r="A57" s="18"/>
       <c r="B57" s="4" t="s">
         <v>267</v>
@@ -4384,7 +4391,7 @@
       </c>
       <c r="H57" s="19"/>
     </row>
-    <row r="58" spans="1:8">
+    <row r="58" spans="1:8" ht="16" x14ac:dyDescent="0.2">
       <c r="A58" s="18"/>
       <c r="B58" s="4" t="s">
         <v>267</v>
@@ -4404,7 +4411,7 @@
       </c>
       <c r="H58" s="19"/>
     </row>
-    <row r="59" spans="1:8">
+    <row r="59" spans="1:8" ht="16" x14ac:dyDescent="0.2">
       <c r="A59" s="18"/>
       <c r="B59" s="4" t="s">
         <v>267</v>
@@ -4424,7 +4431,7 @@
       </c>
       <c r="H59" s="19"/>
     </row>
-    <row r="60" spans="1:8">
+    <row r="60" spans="1:8" ht="16" x14ac:dyDescent="0.2">
       <c r="A60" s="18"/>
       <c r="B60" s="4" t="s">
         <v>267</v>
@@ -4444,7 +4451,7 @@
       </c>
       <c r="H60" s="19"/>
     </row>
-    <row r="61" spans="1:8">
+    <row r="61" spans="1:8" ht="16" x14ac:dyDescent="0.2">
       <c r="A61" s="18"/>
       <c r="B61" s="4" t="s">
         <v>267</v>
@@ -4464,7 +4471,7 @@
       </c>
       <c r="H61" s="19"/>
     </row>
-    <row r="62" spans="1:8">
+    <row r="62" spans="1:8" ht="16" x14ac:dyDescent="0.2">
       <c r="A62" s="18"/>
       <c r="B62" s="4" t="s">
         <v>267</v>
@@ -4484,7 +4491,7 @@
       </c>
       <c r="H62" s="19"/>
     </row>
-    <row r="63" spans="1:8">
+    <row r="63" spans="1:8" ht="16" x14ac:dyDescent="0.2">
       <c r="A63" s="18"/>
       <c r="B63" s="4" t="s">
         <v>267</v>
@@ -4504,7 +4511,7 @@
       </c>
       <c r="H63" s="19"/>
     </row>
-    <row r="64" spans="1:8">
+    <row r="64" spans="1:8" ht="16" x14ac:dyDescent="0.2">
       <c r="A64" s="18"/>
       <c r="B64" s="4" t="s">
         <v>267</v>
@@ -4524,7 +4531,7 @@
       </c>
       <c r="H64" s="19"/>
     </row>
-    <row r="65" spans="1:8">
+    <row r="65" spans="1:8" ht="16" x14ac:dyDescent="0.2">
       <c r="A65" s="18"/>
       <c r="B65" s="4" t="s">
         <v>267</v>
@@ -4544,7 +4551,7 @@
       </c>
       <c r="H65" s="19"/>
     </row>
-    <row r="66" spans="1:8">
+    <row r="66" spans="1:8" ht="16" x14ac:dyDescent="0.2">
       <c r="A66" s="18"/>
       <c r="B66" s="4" t="s">
         <v>267</v>
@@ -4564,7 +4571,7 @@
       </c>
       <c r="H66" s="19"/>
     </row>
-    <row r="67" spans="1:8">
+    <row r="67" spans="1:8" ht="16" x14ac:dyDescent="0.2">
       <c r="A67" s="18"/>
       <c r="B67" s="4" t="s">
         <v>267</v>
@@ -4584,7 +4591,7 @@
       </c>
       <c r="H67" s="19"/>
     </row>
-    <row r="68" spans="1:8">
+    <row r="68" spans="1:8" ht="16" x14ac:dyDescent="0.2">
       <c r="A68" s="18"/>
       <c r="B68" s="4" t="s">
         <v>267</v>
@@ -4604,7 +4611,7 @@
       </c>
       <c r="H68" s="19"/>
     </row>
-    <row r="69" spans="1:8">
+    <row r="69" spans="1:8" ht="16" x14ac:dyDescent="0.2">
       <c r="A69" s="18"/>
       <c r="B69" s="4" t="s">
         <v>267</v>
@@ -4624,7 +4631,7 @@
       </c>
       <c r="H69" s="19"/>
     </row>
-    <row r="70" spans="1:8">
+    <row r="70" spans="1:8" ht="16" x14ac:dyDescent="0.2">
       <c r="A70" s="18"/>
       <c r="B70" s="4" t="s">
         <v>267</v>
@@ -4646,7 +4653,7 @@
         <v>296</v>
       </c>
     </row>
-    <row r="71" spans="1:8" ht="15" customHeight="1">
+    <row r="71" spans="1:8" ht="15" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A71" s="18" t="s">
         <v>8</v>
       </c>
@@ -4672,7 +4679,7 @@
         <v>301</v>
       </c>
     </row>
-    <row r="72" spans="1:8">
+    <row r="72" spans="1:8" ht="16" x14ac:dyDescent="0.2">
       <c r="A72" s="18"/>
       <c r="B72" s="14" t="s">
         <v>302</v>
@@ -4692,7 +4699,7 @@
       </c>
       <c r="H72" s="16"/>
     </row>
-    <row r="73" spans="1:8">
+    <row r="73" spans="1:8" ht="16" x14ac:dyDescent="0.2">
       <c r="A73" s="18"/>
       <c r="B73" s="14" t="s">
         <v>305</v>
@@ -4712,7 +4719,7 @@
       </c>
       <c r="H73" s="16"/>
     </row>
-    <row r="74" spans="1:8">
+    <row r="74" spans="1:8" ht="16" x14ac:dyDescent="0.2">
       <c r="A74" s="18"/>
       <c r="B74" s="14" t="s">
         <v>306</v>
@@ -4732,7 +4739,7 @@
       </c>
       <c r="H74" s="16"/>
     </row>
-    <row r="75" spans="1:8">
+    <row r="75" spans="1:8" ht="16" x14ac:dyDescent="0.2">
       <c r="A75" s="18"/>
       <c r="B75" s="14" t="s">
         <v>309</v>
@@ -4752,7 +4759,7 @@
       </c>
       <c r="H75" s="16"/>
     </row>
-    <row r="76" spans="1:8">
+    <row r="76" spans="1:8" ht="16" x14ac:dyDescent="0.2">
       <c r="A76" s="18"/>
       <c r="B76" s="14" t="s">
         <v>312</v>
@@ -4772,7 +4779,7 @@
       </c>
       <c r="H76" s="16"/>
     </row>
-    <row r="77" spans="1:8">
+    <row r="77" spans="1:8" ht="16" x14ac:dyDescent="0.2">
       <c r="A77" s="18"/>
       <c r="B77" s="14" t="s">
         <v>315</v>
@@ -4792,7 +4799,7 @@
       </c>
       <c r="H77" s="16"/>
     </row>
-    <row r="78" spans="1:8">
+    <row r="78" spans="1:8" ht="16" x14ac:dyDescent="0.2">
       <c r="A78" s="18"/>
       <c r="B78" s="14" t="s">
         <v>318</v>
@@ -4812,7 +4819,7 @@
       </c>
       <c r="H78" s="16"/>
     </row>
-    <row r="79" spans="1:8">
+    <row r="79" spans="1:8" ht="16" x14ac:dyDescent="0.2">
       <c r="A79" s="18"/>
       <c r="B79" s="14" t="s">
         <v>321</v>
@@ -4832,7 +4839,7 @@
       </c>
       <c r="H79" s="16"/>
     </row>
-    <row r="80" spans="1:8">
+    <row r="80" spans="1:8" ht="16" x14ac:dyDescent="0.2">
       <c r="A80" s="18"/>
       <c r="B80" s="14" t="s">
         <v>324</v>
@@ -4852,7 +4859,7 @@
       </c>
       <c r="H80" s="16"/>
     </row>
-    <row r="81" spans="1:8">
+    <row r="81" spans="1:8" ht="16" x14ac:dyDescent="0.2">
       <c r="A81" s="18"/>
       <c r="B81" s="14" t="s">
         <v>327</v>
@@ -4872,67 +4879,67 @@
       </c>
       <c r="H81" s="16"/>
     </row>
-    <row r="82" spans="1:8">
+    <row r="82" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A82" s="12"/>
     </row>
-    <row r="83" spans="1:8">
+    <row r="83" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A83" s="12"/>
     </row>
-    <row r="84" spans="1:8">
+    <row r="84" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A84" s="12"/>
     </row>
-    <row r="85" spans="1:8">
+    <row r="85" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A85" s="12"/>
     </row>
-    <row r="86" spans="1:8">
+    <row r="86" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A86" s="12"/>
     </row>
-    <row r="87" spans="1:8">
+    <row r="87" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A87" s="12"/>
     </row>
-    <row r="88" spans="1:8">
+    <row r="88" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A88" s="12"/>
     </row>
-    <row r="89" spans="1:8">
+    <row r="89" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A89" s="12"/>
     </row>
-    <row r="90" spans="1:8">
+    <row r="90" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A90" s="12"/>
     </row>
-    <row r="91" spans="1:8">
+    <row r="91" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A91" s="12"/>
     </row>
-    <row r="92" spans="1:8">
+    <row r="92" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A92" s="12"/>
     </row>
-    <row r="93" spans="1:8">
+    <row r="93" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A93" s="12"/>
     </row>
-    <row r="94" spans="1:8">
+    <row r="94" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A94" s="12"/>
     </row>
-    <row r="95" spans="1:8">
+    <row r="95" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A95" s="12"/>
     </row>
-    <row r="96" spans="1:8">
+    <row r="96" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A96" s="12"/>
     </row>
-    <row r="97" spans="1:1">
+    <row r="97" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A97" s="12"/>
     </row>
-    <row r="98" spans="1:1">
+    <row r="98" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A98" s="12"/>
     </row>
-    <row r="99" spans="1:1">
+    <row r="99" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A99" s="12"/>
     </row>
-    <row r="100" spans="1:1">
+    <row r="100" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A100" s="12"/>
     </row>
-    <row r="101" spans="1:1">
+    <row r="101" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A101" s="12"/>
     </row>
-    <row r="102" spans="1:1">
+    <row r="102" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A102" s="12"/>
     </row>
   </sheetData>
